--- a/curation/draft/crf/crf_specialization_SC.xlsx
+++ b/curation/draft/crf/crf_specialization_SC.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\crf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D40002-4C40-4D94-A1C6-84034D5B7C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84FD339-0B5F-44B5-BF51-40F6748139DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Collection_SC" sheetId="1" r:id="rId1"/>
+    <sheet name="CRF_SC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
